--- a/NewCapit/Uploads/ArquivoTesteImportacaoCNT.xlsx
+++ b/NewCapit/Uploads/ArquivoTesteImportacaoCNT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D822A-CF54-45A1-9FF6-4B93EA4DC96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C8B12-895F-4F48-B563-C17640D71E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B574D050-4257-4C99-B587-3584E509F211}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>FILIAL</t>
   </si>
@@ -123,94 +123,97 @@
     <t>Tower</t>
   </si>
   <si>
-    <t>+1570058+</t>
-  </si>
-  <si>
-    <t>11FTL185</t>
-  </si>
-  <si>
-    <t>20.93</t>
-  </si>
-  <si>
-    <t>UTILITÁRIO</t>
-  </si>
-  <si>
-    <t>Lopsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 PALLET                                    </t>
-  </si>
-  <si>
-    <t>+1570137+</t>
-  </si>
-  <si>
-    <t>11M212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 GLT1185  8 GLT1165  6 RAD0348  4 RAD0353  4 RAD0352  2 RAD0354  2 RAD0355  2 RAD0356  2 RAD0357         </t>
-  </si>
-  <si>
-    <t>+1569997++</t>
-  </si>
-  <si>
-    <t>11FTL152</t>
-  </si>
-  <si>
-    <t>+1570059+</t>
-  </si>
-  <si>
-    <t>11FTL188</t>
-  </si>
-  <si>
-    <t>+1570060++</t>
-  </si>
-  <si>
-    <t>11FTL163</t>
-  </si>
-  <si>
-    <t>8 RAD0274  6 RAD0348  4 GLT1165  4 RAD0353  4 RAD0356  4 RAD0357  4 RAD0352  4 RAD0349  4 RAD0350  4 RAD0351  3 RAD0347  2 GLT1185</t>
-  </si>
-  <si>
-    <t>+1570001++</t>
-  </si>
-  <si>
-    <t>+1570065+</t>
-  </si>
-  <si>
-    <t>11FTL161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 RAD0374  4 RAD0397  4 RAD0398  2 GLT1165                        </t>
-  </si>
-  <si>
-    <t>+1569945++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 CME0061  8 RAD1071  2 RAD1085  2 RAD1086                        </t>
-  </si>
-  <si>
-    <t>RELEASE++</t>
-  </si>
-  <si>
-    <t>54,00   m³</t>
-  </si>
-  <si>
-    <t>11FTL186</t>
-  </si>
-  <si>
-    <t>20.59</t>
-  </si>
-  <si>
-    <t>G647</t>
-  </si>
-  <si>
-    <t>Pilkington Ltda.</t>
-  </si>
-  <si>
-    <t>tropics</t>
-  </si>
-  <si>
-    <t>11FTL558</t>
+    <t>19.55</t>
+  </si>
+  <si>
+    <t>Arteb Ltda</t>
+  </si>
+  <si>
+    <t>26 RACK</t>
+  </si>
+  <si>
+    <t>+1570091+1570091+0</t>
+  </si>
+  <si>
+    <t>11FTL220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 PALLET  8 RAD0373  5 GLT1165  4 RAD0294  4 RAD0374     1 GLT1185                  </t>
+  </si>
+  <si>
+    <t>+1569938+</t>
+  </si>
+  <si>
+    <t>11FTL180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PALLET  8 RAD0374  4 GLT1165  4 RAD0373  4 RAD0397                        </t>
+  </si>
+  <si>
+    <t>+1569942++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 RAD1071  20 CME0061                              </t>
+  </si>
+  <si>
+    <t>+1570074+</t>
+  </si>
+  <si>
+    <t>11FTL187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 PALLET  12 GLT1185  8 RAD0373  8 RAD0398  4 RAD0294  3 GLT1165                     </t>
+  </si>
+  <si>
+    <t>+1569930+</t>
+  </si>
+  <si>
+    <t>EPJ6</t>
+  </si>
+  <si>
+    <t>Saint Gobain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 RAV0035  8 RBA0139  2 RAD1239                           </t>
+  </si>
+  <si>
+    <t>+1570250++</t>
+  </si>
+  <si>
+    <t>11C003</t>
+  </si>
+  <si>
+    <t>+1570045++</t>
+  </si>
+  <si>
+    <t>11FTL196</t>
+  </si>
+  <si>
+    <t>8 GLT1185  6 RAD0348  4 RAD0353  4 RAD0354  4 RAD0355  4 RAD0352  3 RAD0347  2 CMN1276  2 RAD0356  2 RAD0357  2 RAD0349  2 RAD0350</t>
+  </si>
+  <si>
+    <t>+1569991+</t>
+  </si>
+  <si>
+    <t>11FTL151</t>
+  </si>
+  <si>
+    <t>38.64</t>
+  </si>
+  <si>
+    <t>Z555</t>
+  </si>
+  <si>
+    <t>Maxion Wheels</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>+1570257++</t>
+  </si>
+  <si>
+    <t>11C087</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -288,6 +291,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,7 +616,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,43 +681,43 @@
       <c r="B2" s="3">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3163</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="7">
-        <v>45720.395833333336</v>
-      </c>
-      <c r="L2" s="5">
-        <v>11157.03</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9">
+        <v>45717.041666666664</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2824.8960000000002</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -722,43 +731,43 @@
       <c r="B3" s="3">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1902</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="7">
-        <v>45720.416666666664</v>
-      </c>
-      <c r="L3" s="5">
-        <v>74.8</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="K3" s="9">
+        <v>45719.291666666664</v>
+      </c>
+      <c r="L3" s="4">
+        <v>7123.0039999999999</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -772,43 +781,43 @@
       <c r="B4" s="3">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3550</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <v>65</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="7">
-        <v>45720.416666666664</v>
-      </c>
-      <c r="L4" s="5">
-        <v>18576.128000000001</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="K4" s="9">
+        <v>45719.75</v>
+      </c>
+      <c r="L4" s="4">
+        <v>6837.7259999999997</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -838,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>19</v>
@@ -847,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="K5" s="7">
-        <v>45720.520833333336</v>
+        <v>45720.25</v>
       </c>
       <c r="L5" s="5">
-        <v>11157.03</v>
+        <v>10111.83</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>20</v>
@@ -875,38 +884,38 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="5">
+        <v>65</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7">
-        <v>45720.583333333336</v>
+        <v>45720.291666666664</v>
       </c>
       <c r="L6" s="5">
-        <v>11157.03</v>
+        <v>9963.65</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>20</v>
@@ -926,37 +935,37 @@
         <v>17</v>
       </c>
       <c r="D7" s="5">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5">
-        <v>3550</v>
+      <c r="F7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7" s="7">
-        <v>45720.625</v>
+        <v>45720.291666666664</v>
       </c>
       <c r="L7" s="5">
-        <v>17165.972000000002</v>
+        <v>6220.2560000000003</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>20</v>
@@ -994,10 +1003,10 @@
         <v>19</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7">
-        <v>45720.708333333336</v>
+        <v>45720.333333333336</v>
       </c>
       <c r="L8" s="5">
         <v>11157.03</v>
@@ -1006,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>20</v>
@@ -1025,38 +1034,38 @@
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
+      <c r="D9" s="5">
+        <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5">
-        <v>65</v>
+        <v>3550</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7">
-        <v>45720.75</v>
+        <v>45720.333333333336</v>
       </c>
       <c r="L9" s="5">
-        <v>5661.3119999999999</v>
+        <v>13763.092000000001</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>20</v>
@@ -1076,37 +1085,37 @@
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="K10" s="7">
-        <v>45721.020833333336</v>
+        <v>45720.375</v>
       </c>
       <c r="L10" s="5">
-        <v>6211.7340000000004</v>
+        <v>6757.3680000000004</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>20</v>
@@ -1116,54 +1125,21 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="7">
-        <v>45721.083333333336</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
